--- a/src/test/resources/excel.xlsx
+++ b/src/test/resources/excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shaun\eclipse-workspace\Ds_AlgoProject3\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495593CD-1D46-4AF2-B107-DBA05C865897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28F4E07-7B97-4221-87EF-270DBC75D09C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,9 +48,6 @@
     <t>print"Find Numbers with Even Number of Digits"</t>
   </si>
   <si>
-    <t>print"Squares of a Sorted Array"</t>
-  </si>
-  <si>
     <t>Overview of Trees</t>
   </si>
   <si>
@@ -76,6 +73,14 @@
   </si>
   <si>
     <t>print"'array1.insert(1,60),print x"</t>
+  </si>
+  <si>
+    <t>print" def search(input_list, num):
+  if num in input_list :
+    print("Element Found")
+    else:
+      print("Not Found")
+      search([12, 23, 45, 67, 6, 90] , 12)"</t>
   </si>
 </sst>
 </file>
@@ -564,13 +569,16 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1003,7 +1011,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1016,7 +1024,7 @@
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1029,49 +1037,49 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
+    <row r="2" spans="1:1" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
